--- a/test.xlsx
+++ b/test.xlsx
@@ -49,6 +49,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
